--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H2">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I2">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J2">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N2">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q2">
-        <v>243.976150605443</v>
+        <v>539.3869143410668</v>
       </c>
       <c r="R2">
-        <v>243.976150605443</v>
+        <v>4854.482229069602</v>
       </c>
       <c r="S2">
-        <v>0.0008635082060923169</v>
+        <v>0.001683878546326707</v>
       </c>
       <c r="T2">
-        <v>0.0008635082060923169</v>
+        <v>0.001683878546326707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H3">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I3">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J3">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N3">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q3">
-        <v>702.3684249664223</v>
+        <v>1100.519488389661</v>
       </c>
       <c r="R3">
-        <v>702.3684249664223</v>
+        <v>9904.675395506953</v>
       </c>
       <c r="S3">
-        <v>0.002485902401335414</v>
+        <v>0.00343564351867463</v>
       </c>
       <c r="T3">
-        <v>0.002485902401335414</v>
+        <v>0.003435643518674631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H4">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I4">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J4">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N4">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q4">
-        <v>544.1454292345589</v>
+        <v>1012.549569172797</v>
       </c>
       <c r="R4">
-        <v>544.1454292345589</v>
+        <v>9112.946122555171</v>
       </c>
       <c r="S4">
-        <v>0.001925901537038125</v>
+        <v>0.003161015685197555</v>
       </c>
       <c r="T4">
-        <v>0.001925901537038125</v>
+        <v>0.003161015685197555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H5">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I5">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J5">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N5">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q5">
-        <v>667.3913708341923</v>
+        <v>1107.485837151557</v>
       </c>
       <c r="R5">
-        <v>667.3913708341923</v>
+        <v>9967.372534364011</v>
       </c>
       <c r="S5">
-        <v>0.002362107623882105</v>
+        <v>0.003457391330708067</v>
       </c>
       <c r="T5">
-        <v>0.002362107623882105</v>
+        <v>0.003457391330708067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H6">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I6">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J6">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N6">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q6">
-        <v>1553.626616771592</v>
+        <v>2492.107085579304</v>
       </c>
       <c r="R6">
-        <v>1553.626616771592</v>
+        <v>22428.96377021374</v>
       </c>
       <c r="S6">
-        <v>0.005498772439258999</v>
+        <v>0.00777995450943083</v>
       </c>
       <c r="T6">
-        <v>0.005498772439258999</v>
+        <v>0.007779954509430832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H7">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I7">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J7">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N7">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q7">
-        <v>214.0078524880701</v>
+        <v>344.2625037616847</v>
       </c>
       <c r="R7">
-        <v>214.0078524880701</v>
+        <v>3098.362533855162</v>
       </c>
       <c r="S7">
-        <v>0.0007574409889370548</v>
+        <v>0.001074731753730427</v>
       </c>
       <c r="T7">
-        <v>0.0007574409889370548</v>
+        <v>0.001074731753730427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H8">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I8">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J8">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N8">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O8">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P8">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q8">
-        <v>560.8198280904436</v>
+        <v>798.806510616743</v>
       </c>
       <c r="R8">
-        <v>560.8198280904436</v>
+        <v>7189.258595550687</v>
       </c>
       <c r="S8">
-        <v>0.001984917470390553</v>
+        <v>0.00249374449051446</v>
       </c>
       <c r="T8">
-        <v>0.001984917470390553</v>
+        <v>0.00249374449051446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H9">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I9">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J9">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N9">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O9">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P9">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q9">
-        <v>1614.510837917273</v>
+        <v>1629.817314830875</v>
       </c>
       <c r="R9">
-        <v>1614.510837917273</v>
+        <v>14668.35583347787</v>
       </c>
       <c r="S9">
-        <v>0.00571426081568583</v>
+        <v>0.00508802556737621</v>
       </c>
       <c r="T9">
-        <v>0.00571426081568583</v>
+        <v>0.005088025567376211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H10">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I10">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J10">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N10">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O10">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P10">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q10">
-        <v>1250.808922602609</v>
+        <v>1499.538024880532</v>
       </c>
       <c r="R10">
-        <v>1250.808922602609</v>
+        <v>13495.84222392479</v>
       </c>
       <c r="S10">
-        <v>0.004427005534108735</v>
+        <v>0.004681314734122028</v>
       </c>
       <c r="T10">
-        <v>0.004427005534108735</v>
+        <v>0.004681314734122027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H11">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I11">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J11">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N11">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O11">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P11">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q11">
-        <v>1534.110251889215</v>
+        <v>1640.134147883874</v>
       </c>
       <c r="R11">
-        <v>1534.110251889215</v>
+        <v>14761.20733095486</v>
       </c>
       <c r="S11">
-        <v>0.00542969789575463</v>
+        <v>0.00512023304846648</v>
       </c>
       <c r="T11">
-        <v>0.00542969789575463</v>
+        <v>0.00512023304846648</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H12">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I12">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J12">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N12">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O12">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P12">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q12">
-        <v>3571.269609641686</v>
+        <v>3690.692733150163</v>
       </c>
       <c r="R12">
-        <v>3571.269609641686</v>
+        <v>33216.23459835147</v>
       </c>
       <c r="S12">
-        <v>0.0126398445357917</v>
+        <v>0.01152174468679407</v>
       </c>
       <c r="T12">
-        <v>0.0126398445357917</v>
+        <v>0.01152174468679407</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H13">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I13">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J13">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N13">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O13">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P13">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q13">
-        <v>491.9327022109631</v>
+        <v>509.8364866748814</v>
       </c>
       <c r="R13">
-        <v>491.9327022109631</v>
+        <v>4588.528380073933</v>
       </c>
       <c r="S13">
-        <v>0.00174110430117942</v>
+        <v>0.001591626899394084</v>
       </c>
       <c r="T13">
-        <v>0.00174110430117942</v>
+        <v>0.001591626899394084</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H14">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I14">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J14">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N14">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O14">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P14">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q14">
-        <v>7239.798746459275</v>
+        <v>11145.14853941196</v>
       </c>
       <c r="R14">
-        <v>7239.798746459275</v>
+        <v>100306.3368547076</v>
       </c>
       <c r="S14">
-        <v>0.02562392107798499</v>
+        <v>0.03479334782169626</v>
       </c>
       <c r="T14">
-        <v>0.02562392107798499</v>
+        <v>0.03479334782169626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H15">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I15">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J15">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N15">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O15">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P15">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q15">
-        <v>20842.2258897261</v>
+        <v>22739.61945036119</v>
       </c>
       <c r="R15">
-        <v>20842.2258897261</v>
+        <v>204656.5750532507</v>
       </c>
       <c r="S15">
-        <v>0.0737671819329324</v>
+        <v>0.07098940728080877</v>
       </c>
       <c r="T15">
-        <v>0.0737671819329324</v>
+        <v>0.07098940728080878</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H16">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I16">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J16">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N16">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O16">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P16">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q16">
-        <v>16147.08399443046</v>
+        <v>20921.9301616439</v>
       </c>
       <c r="R16">
-        <v>16147.08399443046</v>
+        <v>188297.3714547951</v>
       </c>
       <c r="S16">
-        <v>0.05714960047960336</v>
+        <v>0.06531487585303392</v>
       </c>
       <c r="T16">
-        <v>0.05714960047960336</v>
+        <v>0.06531487585303392</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H17">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I17">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J17">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N17">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O17">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P17">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q17">
-        <v>19804.3095522769</v>
+        <v>22883.56248951245</v>
       </c>
       <c r="R17">
-        <v>19804.3095522769</v>
+        <v>205952.062405612</v>
       </c>
       <c r="S17">
-        <v>0.07009367010646671</v>
+        <v>0.07143877412504519</v>
       </c>
       <c r="T17">
-        <v>0.07009367010646671</v>
+        <v>0.07143877412504521</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H18">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I18">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J18">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N18">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O18">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P18">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q18">
-        <v>46102.63751049525</v>
+        <v>51493.46954186518</v>
       </c>
       <c r="R18">
-        <v>46102.63751049525</v>
+        <v>463441.2258767866</v>
       </c>
       <c r="S18">
-        <v>0.1631717104890004</v>
+        <v>0.1607542680997384</v>
       </c>
       <c r="T18">
-        <v>0.1631717104890004</v>
+        <v>0.1607542680997384</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H19">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I19">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J19">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N19">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O19">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P19">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q19">
-        <v>6350.513270787728</v>
+        <v>7113.366377567903</v>
       </c>
       <c r="R19">
-        <v>6350.513270787728</v>
+        <v>64020.29739811113</v>
       </c>
       <c r="S19">
-        <v>0.02247646054179946</v>
+        <v>0.02220677720738015</v>
       </c>
       <c r="T19">
-        <v>0.02247646054179946</v>
+        <v>0.02220677720738015</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H20">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I20">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J20">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N20">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O20">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P20">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q20">
-        <v>6741.32259158361</v>
+        <v>9619.536995574112</v>
       </c>
       <c r="R20">
-        <v>6741.32259158361</v>
+        <v>86575.832960167</v>
       </c>
       <c r="S20">
-        <v>0.02385965744316528</v>
+        <v>0.03003063578624537</v>
       </c>
       <c r="T20">
-        <v>0.02385965744316528</v>
+        <v>0.03003063578624537</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H21">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I21">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J21">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N21">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O21">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P21">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q21">
-        <v>19407.19254357933</v>
+        <v>19626.89055192866</v>
       </c>
       <c r="R21">
-        <v>19407.19254357933</v>
+        <v>176642.014967358</v>
       </c>
       <c r="S21">
-        <v>0.06868814831698759</v>
+        <v>0.06127197203489659</v>
       </c>
       <c r="T21">
-        <v>0.06868814831698759</v>
+        <v>0.06127197203489661</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H22">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I22">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J22">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N22">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O22">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P22">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q22">
-        <v>15035.3215513191</v>
+        <v>18058.01694764763</v>
       </c>
       <c r="R22">
-        <v>15035.3215513191</v>
+        <v>162522.1525288287</v>
       </c>
       <c r="S22">
-        <v>0.05321472409734405</v>
+        <v>0.05637420285676518</v>
       </c>
       <c r="T22">
-        <v>0.05321472409734405</v>
+        <v>0.05637420285676518</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H23">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I23">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J23">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N23">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O23">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P23">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q23">
-        <v>18440.7390413681</v>
+        <v>19751.12984631531</v>
       </c>
       <c r="R23">
-        <v>18440.7390413681</v>
+        <v>177760.1686168378</v>
       </c>
       <c r="S23">
-        <v>0.06526756590393169</v>
+        <v>0.06165982698069929</v>
       </c>
       <c r="T23">
-        <v>0.06526756590393169</v>
+        <v>0.06165982698069931</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H24">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I24">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J24">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N24">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O24">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P24">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q24">
-        <v>42928.36895957766</v>
+        <v>44444.74952817239</v>
       </c>
       <c r="R24">
-        <v>42928.36895957766</v>
+        <v>400002.7457535515</v>
       </c>
       <c r="S24">
-        <v>0.1519369773593231</v>
+        <v>0.1387493063653204</v>
       </c>
       <c r="T24">
-        <v>0.1519369773593231</v>
+        <v>0.1387493063653204</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H25">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I25">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J25">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N25">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O25">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P25">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q25">
-        <v>5913.26638761196</v>
+        <v>6139.648187739436</v>
       </c>
       <c r="R25">
-        <v>5913.26638761196</v>
+        <v>55256.83368965492</v>
       </c>
       <c r="S25">
-        <v>0.02092890652566465</v>
+        <v>0.01916698679640355</v>
       </c>
       <c r="T25">
-        <v>0.02092890652566465</v>
+        <v>0.01916698679640355</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H26">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I26">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J26">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N26">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O26">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P26">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q26">
-        <v>2567.878937079028</v>
+        <v>3764.965690106624</v>
       </c>
       <c r="R26">
-        <v>2567.878937079028</v>
+        <v>33884.69121095961</v>
       </c>
       <c r="S26">
-        <v>0.009088529878501525</v>
+        <v>0.0117536128234989</v>
       </c>
       <c r="T26">
-        <v>0.009088529878501525</v>
+        <v>0.0117536128234989</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H27">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I27">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J27">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N27">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O27">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P27">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q27">
-        <v>7392.513899677905</v>
+        <v>7681.717900298912</v>
       </c>
       <c r="R27">
-        <v>7392.513899677905</v>
+        <v>69135.46110269021</v>
       </c>
       <c r="S27">
-        <v>0.02616442795815212</v>
+        <v>0.02398107856778302</v>
       </c>
       <c r="T27">
-        <v>0.02616442795815212</v>
+        <v>0.02398107856778302</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H28">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I28">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J28">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N28">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O28">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P28">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q28">
-        <v>5727.197445208308</v>
+        <v>7067.680520438566</v>
       </c>
       <c r="R28">
-        <v>5727.197445208308</v>
+        <v>63609.12468394708</v>
       </c>
       <c r="S28">
-        <v>0.0202703501124015</v>
+        <v>0.02206415336418845</v>
       </c>
       <c r="T28">
-        <v>0.0202703501124015</v>
+        <v>0.02206415336418844</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H29">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I29">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J29">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N29">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O29">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P29">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q29">
-        <v>7024.376110945934</v>
+        <v>7730.343596207561</v>
       </c>
       <c r="R29">
-        <v>7024.376110945934</v>
+        <v>69573.09236586804</v>
       </c>
       <c r="S29">
-        <v>0.02486147272767622</v>
+        <v>0.02413288011128321</v>
       </c>
       <c r="T29">
-        <v>0.02486147272767622</v>
+        <v>0.02413288011128321</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H30">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I30">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J30">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N30">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O30">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P30">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q30">
-        <v>16352.11087392292</v>
+        <v>17395.11549838006</v>
       </c>
       <c r="R30">
-        <v>16352.11087392292</v>
+        <v>156556.0394854205</v>
       </c>
       <c r="S30">
-        <v>0.05787525498506178</v>
+        <v>0.05430473194623302</v>
       </c>
       <c r="T30">
-        <v>0.05787525498506178</v>
+        <v>0.05430473194623302</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H31">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I31">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J31">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N31">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O31">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P31">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q31">
-        <v>2252.45892030797</v>
+        <v>2402.981015281673</v>
       </c>
       <c r="R31">
-        <v>2252.45892030797</v>
+        <v>21626.82913753505</v>
       </c>
       <c r="S31">
-        <v>0.007972159396502828</v>
+        <v>0.007501717359618016</v>
       </c>
       <c r="T31">
-        <v>0.007972159396502828</v>
+        <v>0.007501717359618015</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H32">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I32">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J32">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N32">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O32">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P32">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q32">
-        <v>206.488169563345</v>
+        <v>325.3758481141166</v>
       </c>
       <c r="R32">
-        <v>206.488169563345</v>
+        <v>2928.382633027049</v>
       </c>
       <c r="S32">
-        <v>0.0007308264698678802</v>
+        <v>0.001015770675122037</v>
       </c>
       <c r="T32">
-        <v>0.0007308264698678802</v>
+        <v>0.001015770675122037</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H33">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I33">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J33">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N33">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O33">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P33">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q33">
-        <v>594.4465066380574</v>
+        <v>663.8693901915386</v>
       </c>
       <c r="R33">
-        <v>594.4465066380574</v>
+        <v>5974.824511723848</v>
       </c>
       <c r="S33">
-        <v>0.002103932844628715</v>
+        <v>0.002072492665255255</v>
       </c>
       <c r="T33">
-        <v>0.002103932844628715</v>
+        <v>0.002072492665255255</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H34">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I34">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J34">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N34">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O34">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P34">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q34">
-        <v>460.5351522272852</v>
+        <v>610.8030544820697</v>
       </c>
       <c r="R34">
-        <v>460.5351522272852</v>
+        <v>5497.227490338627</v>
       </c>
       <c r="S34">
-        <v>0.001629978512880772</v>
+        <v>0.001906828163841631</v>
       </c>
       <c r="T34">
-        <v>0.001629978512880772</v>
+        <v>0.001906828163841631</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H35">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I35">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J35">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N35">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O35">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P35">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q35">
-        <v>564.8438267590633</v>
+        <v>668.0717198669433</v>
       </c>
       <c r="R35">
-        <v>564.8438267590633</v>
+        <v>6012.64547880249</v>
       </c>
       <c r="S35">
-        <v>0.001999159665224084</v>
+        <v>0.002085611657572023</v>
       </c>
       <c r="T35">
-        <v>0.001999159665224084</v>
+        <v>0.002085611657572024</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H36">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I36">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J36">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N36">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O36">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P36">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q36">
-        <v>1314.905229408523</v>
+        <v>1503.320594182662</v>
       </c>
       <c r="R36">
-        <v>1314.905229408523</v>
+        <v>13529.88534764396</v>
       </c>
       <c r="S36">
-        <v>0.004653862490289776</v>
+        <v>0.004693123302569839</v>
       </c>
       <c r="T36">
-        <v>0.004653862490289776</v>
+        <v>0.004693123302569839</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H37">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I37">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J37">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N37">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O37">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P37">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q37">
-        <v>181.1246288736965</v>
+        <v>207.6704146080153</v>
       </c>
       <c r="R37">
-        <v>181.1246288736965</v>
+        <v>1869.033731472138</v>
       </c>
       <c r="S37">
-        <v>0.0006410569351542717</v>
+        <v>0.0006483133842659208</v>
       </c>
       <c r="T37">
-        <v>0.0006410569351542717</v>
+        <v>0.0006483133842659208</v>
       </c>
     </row>
   </sheetData>
